--- a/ProjectDocs/RT Matrix.xlsx
+++ b/ProjectDocs/RT Matrix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
   <si>
     <t>INSTRUCTIONS FOR USE</t>
   </si>
@@ -578,35 +578,37 @@
     <t>CSL_TRACKER_RECIEVE_NOTIFICATION_TC02</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Document Number:COMP/RT/83</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                                                     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Requirements Traceability Matrix</t>
-    </r>
+    <t>Implicit Testing</t>
+  </si>
+  <si>
+    <t>Login Testing</t>
+  </si>
+  <si>
+    <t>Figure 1</t>
+  </si>
+  <si>
+    <t>http://jantv.in/gps/index.php?p=home&amp;logout=1</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_LOGIN_DISPLAY_TC01</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_LOGIN_TC02</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_LOGIN_TC03</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_LOGIN_TC04</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_LOGIN_TC05</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_LOGIN_TC06</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_LOGIN_TC07</t>
   </si>
   <si>
     <r>
@@ -699,6 +701,7 @@
       <u/>
       <sz val="10"/>
       <color indexed="20"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -780,7 +783,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,12 +799,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -957,7 +954,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1043,8 +1039,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
@@ -1389,16 +1383,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AU110"/>
+  <dimension ref="A1:AU114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="38.0952380952381" customWidth="1"/>
-    <col min="2" max="2" width="15.2857142857143" style="15" customWidth="1"/>
+    <col min="2" max="2" width="15.2857142857143" style="14" customWidth="1"/>
     <col min="3" max="3" width="42.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="26.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="28.5714285714286" customWidth="1"/>
@@ -1410,28 +1404,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:9">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="40"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="41"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -1472,17 +1466,17 @@
       <c r="AU2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="41"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -1523,15 +1517,15 @@
       <c r="AU3" s="7"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A4" s="23"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="41"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -1572,17 +1566,17 @@
       <c r="AU4" s="7"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="41"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -1623,17 +1617,17 @@
       <c r="AU5" s="7"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="41"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -1674,17 +1668,17 @@
       <c r="AU6" s="7"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="41"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -1725,15 +1719,15 @@
       <c r="AU7" s="7"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A8" s="23"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="41"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -1774,17 +1768,17 @@
       <c r="AU8" s="7"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="41"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -1825,17 +1819,17 @@
       <c r="AU9" s="7"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="41"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1876,15 +1870,15 @@
       <c r="AU10" s="7"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="41"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1925,17 +1919,17 @@
       <c r="AU11" s="7"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="41"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1976,17 +1970,17 @@
       <c r="AU12" s="7"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="41"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -2027,15 +2021,15 @@
       <c r="AU13" s="7"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A14" s="23"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="41"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -2076,17 +2070,17 @@
       <c r="AU14" s="7"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="41"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -2127,17 +2121,17 @@
       <c r="AU15" s="7"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="41"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -2178,15 +2172,15 @@
       <c r="AU16" s="7"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A17" s="23"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="41"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -2227,17 +2221,17 @@
       <c r="AU17" s="7"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="41"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -2278,17 +2272,17 @@
       <c r="AU18" s="7"/>
     </row>
     <row r="19" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="41"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -2329,15 +2323,15 @@
       <c r="AU19" s="7"/>
     </row>
     <row r="20" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A20" s="23"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="41"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="40"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -2378,17 +2372,17 @@
       <c r="AU20" s="7"/>
     </row>
     <row r="21" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="41"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -2429,17 +2423,17 @@
       <c r="AU21" s="7"/>
     </row>
     <row r="22" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="41"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -2480,15 +2474,15 @@
       <c r="AU22" s="7"/>
     </row>
     <row r="23" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A23" s="23"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="41"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="40"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -2529,17 +2523,17 @@
       <c r="AU23" s="7"/>
     </row>
     <row r="24" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="41"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="40"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -2580,17 +2574,17 @@
       <c r="AU24" s="7"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="41"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="40"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -2631,15 +2625,15 @@
       <c r="AU25" s="7"/>
     </row>
     <row r="26" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A26" s="23"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="41"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="40"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -2680,17 +2674,17 @@
       <c r="AU26" s="7"/>
     </row>
     <row r="27" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="41"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="40"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -2731,17 +2725,17 @@
       <c r="AU27" s="7"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="41"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="40"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2782,15 +2776,15 @@
       <c r="AU28" s="7"/>
     </row>
     <row r="29" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A29" s="23"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="41"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="40"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2831,17 +2825,17 @@
       <c r="AU29" s="7"/>
     </row>
     <row r="30" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="41"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="40"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -2882,17 +2876,17 @@
       <c r="AU30" s="7"/>
     </row>
     <row r="31" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="41"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="40"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -2933,15 +2927,15 @@
       <c r="AU31" s="7"/>
     </row>
     <row r="32" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A32" s="23"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="41"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="40"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -2982,15 +2976,15 @@
       <c r="AU32" s="7"/>
     </row>
     <row r="33" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A33" s="23"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="41"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="40"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -3031,15 +3025,15 @@
       <c r="AU33" s="7"/>
     </row>
     <row r="34" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:47">
-      <c r="A34" s="23"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="41"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="40"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -3080,15 +3074,15 @@
       <c r="AU34" s="7"/>
     </row>
     <row r="35" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="42"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="41"/>
     </row>
     <row r="36" s="8" customFormat="1" ht="18" spans="1:1">
       <c r="A36" s="8" t="s">
@@ -3102,17 +3096,17 @@
     </row>
     <row r="38" s="7" customFormat="1" ht="15" customHeight="1"/>
     <row r="39" s="6" customFormat="1" ht="18" spans="1:47">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -3153,101 +3147,101 @@
       <c r="AU39" s="7"/>
     </row>
     <row r="40" s="10" customFormat="1" ht="36.75" customHeight="1" spans="1:47">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="32" t="s">
+      <c r="G40" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="H40" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="43"/>
-      <c r="Z40" s="43"/>
-      <c r="AA40" s="43"/>
-      <c r="AB40" s="43"/>
-      <c r="AC40" s="43"/>
-      <c r="AD40" s="43"/>
-      <c r="AE40" s="43"/>
-      <c r="AF40" s="43"/>
-      <c r="AG40" s="43"/>
-      <c r="AH40" s="43"/>
-      <c r="AI40" s="43"/>
-      <c r="AJ40" s="43"/>
-      <c r="AK40" s="43"/>
-      <c r="AL40" s="43"/>
-      <c r="AM40" s="43"/>
-      <c r="AN40" s="43"/>
-      <c r="AO40" s="43"/>
-      <c r="AP40" s="43"/>
-      <c r="AQ40" s="43"/>
-      <c r="AR40" s="43"/>
-      <c r="AS40" s="43"/>
-      <c r="AT40" s="43"/>
-      <c r="AU40" s="43"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="42"/>
+      <c r="AB40" s="42"/>
+      <c r="AC40" s="42"/>
+      <c r="AD40" s="42"/>
+      <c r="AE40" s="42"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="42"/>
+      <c r="AH40" s="42"/>
+      <c r="AI40" s="42"/>
+      <c r="AJ40" s="42"/>
+      <c r="AK40" s="42"/>
+      <c r="AL40" s="42"/>
+      <c r="AM40" s="42"/>
+      <c r="AN40" s="42"/>
+      <c r="AO40" s="42"/>
+      <c r="AP40" s="42"/>
+      <c r="AQ40" s="42"/>
+      <c r="AR40" s="42"/>
+      <c r="AS40" s="42"/>
+      <c r="AT40" s="42"/>
+      <c r="AU40" s="42"/>
     </row>
     <row r="41" s="11" customFormat="1" ht="70.5" customHeight="1" spans="1:47">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="35">
+      <c r="B41" s="34">
         <v>1</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F41" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="34" t="s">
+      <c r="G41" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H41" s="34" t="s">
+      <c r="H41" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="44" t="s">
+      <c r="I41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="45"/>
+      <c r="J41" s="44"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
@@ -3290,7 +3284,7 @@
       <c r="A42" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="35" t="s">
         <v>38</v>
       </c>
       <c r="C42" s="13" t="s">
@@ -3299,7 +3293,7 @@
       <c r="D42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="36" t="s">
         <v>41</v>
       </c>
       <c r="F42" s="13" t="s">
@@ -3309,17 +3303,17 @@
         <v>43</v>
       </c>
       <c r="H42" s="13"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="44"/>
     </row>
     <row r="43" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
       <c r="A43" s="13"/>
-      <c r="B43" s="36"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="36" t="s">
         <v>45</v>
       </c>
       <c r="F43" s="13"/>
@@ -3327,12 +3321,12 @@
         <v>46</v>
       </c>
       <c r="H43" s="13"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="44"/>
     </row>
     <row r="44" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
       <c r="A44" s="13"/>
-      <c r="B44" s="36"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
@@ -3341,12 +3335,12 @@
         <v>47</v>
       </c>
       <c r="H44" s="13"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="44"/>
     </row>
     <row r="45" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
       <c r="A45" s="13"/>
-      <c r="B45" s="36"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -3355,12 +3349,12 @@
         <v>48</v>
       </c>
       <c r="H45" s="13"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="44"/>
     </row>
     <row r="46" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
       <c r="A46" s="13"/>
-      <c r="B46" s="36"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -3369,12 +3363,12 @@
         <v>49</v>
       </c>
       <c r="H46" s="13"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
       <c r="A47" s="13"/>
-      <c r="B47" s="36"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -3383,12 +3377,12 @@
         <v>50</v>
       </c>
       <c r="H47" s="13"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="44"/>
     </row>
     <row r="48" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
       <c r="A48" s="13"/>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="35" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="13" t="s">
@@ -3397,7 +3391,7 @@
       <c r="D48" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="36" t="s">
         <v>41</v>
       </c>
       <c r="F48" s="13"/>
@@ -3405,8 +3399,8 @@
         <v>53</v>
       </c>
       <c r="H48" s="13"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="44"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
@@ -3447,7 +3441,7 @@
     </row>
     <row r="49" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
       <c r="A49" s="13"/>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="35" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="13" t="s">
@@ -3456,7 +3450,7 @@
       <c r="D49" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="36" t="s">
         <v>41</v>
       </c>
       <c r="F49" s="13"/>
@@ -3464,8 +3458,8 @@
         <v>55</v>
       </c>
       <c r="H49" s="13"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="44"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
@@ -3506,7 +3500,7 @@
     </row>
     <row r="50" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
       <c r="A50" s="13"/>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="13" t="s">
@@ -3515,7 +3509,7 @@
       <c r="D50" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="36" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="13"/>
@@ -3523,8 +3517,8 @@
         <v>58</v>
       </c>
       <c r="H50" s="13"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="44"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
@@ -3565,7 +3559,7 @@
     </row>
     <row r="51" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
       <c r="A51" s="13"/>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -3574,7 +3568,7 @@
       <c r="D51" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="36" t="s">
         <v>41</v>
       </c>
       <c r="F51" s="13"/>
@@ -3582,8 +3576,8 @@
         <v>60</v>
       </c>
       <c r="H51" s="13"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="44"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
@@ -3624,7 +3618,7 @@
     </row>
     <row r="52" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
       <c r="A52" s="13"/>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="35" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="13" t="s">
@@ -3679,7 +3673,7 @@
     </row>
     <row r="53" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
       <c r="A53" s="13"/>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="35" t="s">
         <v>61</v>
       </c>
       <c r="C53" s="13" t="s">
@@ -3734,7 +3728,7 @@
     </row>
     <row r="54" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
       <c r="A54" s="13"/>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="35" t="s">
         <v>66</v>
       </c>
       <c r="C54" s="13" t="s">
@@ -3743,7 +3737,7 @@
       <c r="D54" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="36" t="s">
         <v>69</v>
       </c>
       <c r="F54" s="13"/>
@@ -3793,12 +3787,12 @@
     </row>
     <row r="55" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
       <c r="A55" s="13"/>
-      <c r="B55" s="36"/>
+      <c r="B55" s="35"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="36" t="s">
         <v>69</v>
       </c>
       <c r="F55" s="13"/>
@@ -3848,12 +3842,12 @@
     </row>
     <row r="56" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
       <c r="A56" s="13"/>
-      <c r="B56" s="36"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="36" t="s">
         <v>73</v>
       </c>
       <c r="F56" s="13"/>
@@ -3903,7 +3897,7 @@
     </row>
     <row r="57" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
       <c r="A57" s="13"/>
-      <c r="B57" s="36"/>
+      <c r="B57" s="35"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -3954,7 +3948,7 @@
     </row>
     <row r="58" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
       <c r="A58" s="13"/>
-      <c r="B58" s="36"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
@@ -4004,17 +3998,17 @@
       <c r="AU58" s="12"/>
     </row>
     <row r="59" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
-      <c r="A59" s="38"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38" t="s">
+      <c r="A59" s="37"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
@@ -4055,43 +4049,43 @@
       <c r="AU59" s="12"/>
     </row>
     <row r="60" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B60" s="36"/>
+      <c r="B60" s="35"/>
       <c r="G60" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="61" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B61" s="36"/>
+      <c r="B61" s="35"/>
       <c r="G61" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="62" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B62" s="36"/>
+      <c r="B62" s="35"/>
       <c r="G62" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="63" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B63" s="36"/>
+      <c r="B63" s="35"/>
       <c r="G63" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="64" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B64" s="36"/>
+      <c r="B64" s="35"/>
       <c r="G64" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="65" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B65" s="36"/>
+      <c r="B65" s="35"/>
       <c r="G65" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="66" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C66" s="13" t="s">
@@ -4100,7 +4094,7 @@
       <c r="D66" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E66" s="37" t="s">
+      <c r="E66" s="36" t="s">
         <v>69</v>
       </c>
       <c r="G66" s="13" t="s">
@@ -4108,13 +4102,13 @@
       </c>
     </row>
     <row r="67" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B67" s="36"/>
+      <c r="B67" s="35"/>
       <c r="G67" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="68" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="35" t="s">
         <v>89</v>
       </c>
       <c r="C68" s="13" t="s">
@@ -4123,7 +4117,7 @@
       <c r="D68" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="37" t="s">
+      <c r="E68" s="36" t="s">
         <v>92</v>
       </c>
       <c r="G68" s="13" t="s">
@@ -4131,11 +4125,11 @@
       </c>
     </row>
     <row r="69" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B69" s="36"/>
+      <c r="B69" s="35"/>
       <c r="D69" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E69" s="37" t="s">
+      <c r="E69" s="36" t="s">
         <v>92</v>
       </c>
       <c r="G69" s="13" t="s">
@@ -4143,8 +4137,8 @@
       </c>
     </row>
     <row r="70" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B70" s="36"/>
-      <c r="E70" s="37" t="s">
+      <c r="B70" s="35"/>
+      <c r="E70" s="36" t="s">
         <v>92</v>
       </c>
       <c r="G70" s="13" t="s">
@@ -4152,8 +4146,8 @@
       </c>
     </row>
     <row r="71" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B71" s="36"/>
-      <c r="E71" s="37" t="s">
+      <c r="B71" s="35"/>
+      <c r="E71" s="36" t="s">
         <v>92</v>
       </c>
       <c r="G71" s="13" t="s">
@@ -4161,13 +4155,13 @@
       </c>
     </row>
     <row r="72" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="35" t="s">
         <v>98</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E72" s="37" t="s">
+      <c r="E72" s="36" t="s">
         <v>92</v>
       </c>
       <c r="G72" s="13" t="s">
@@ -4175,8 +4169,8 @@
       </c>
     </row>
     <row r="73" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B73" s="36"/>
-      <c r="E73" s="37" t="s">
+      <c r="B73" s="35"/>
+      <c r="E73" s="36" t="s">
         <v>92</v>
       </c>
       <c r="G73" s="13" t="s">
@@ -4184,8 +4178,8 @@
       </c>
     </row>
     <row r="74" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B74" s="36"/>
-      <c r="E74" s="37" t="s">
+      <c r="B74" s="35"/>
+      <c r="E74" s="36" t="s">
         <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
@@ -4193,7 +4187,7 @@
       </c>
     </row>
     <row r="75" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="35" t="s">
         <v>103</v>
       </c>
       <c r="C75" s="13" t="s">
@@ -4202,7 +4196,7 @@
       <c r="D75" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E75" s="37" t="s">
+      <c r="E75" s="36" t="s">
         <v>106</v>
       </c>
       <c r="G75" s="13" t="s">
@@ -4210,8 +4204,8 @@
       </c>
     </row>
     <row r="76" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B76" s="36"/>
-      <c r="E76" s="37" t="s">
+      <c r="B76" s="35"/>
+      <c r="E76" s="36" t="s">
         <v>106</v>
       </c>
       <c r="G76" s="13" t="s">
@@ -4219,13 +4213,13 @@
       </c>
     </row>
     <row r="77" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="35" t="s">
         <v>109</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E77" s="37" t="s">
+      <c r="E77" s="36" t="s">
         <v>106</v>
       </c>
       <c r="G77" s="13" t="s">
@@ -4233,13 +4227,13 @@
       </c>
     </row>
     <row r="78" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="35" t="s">
         <v>112</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E78" s="37" t="s">
+      <c r="E78" s="36" t="s">
         <v>106</v>
       </c>
       <c r="G78" s="13" t="s">
@@ -4247,8 +4241,8 @@
       </c>
     </row>
     <row r="79" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B79" s="36"/>
-      <c r="E79" s="37" t="s">
+      <c r="B79" s="35"/>
+      <c r="E79" s="36" t="s">
         <v>106</v>
       </c>
       <c r="G79" s="13" t="s">
@@ -4256,7 +4250,7 @@
       </c>
     </row>
     <row r="80" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C80" s="13" t="s">
@@ -4265,7 +4259,7 @@
       <c r="D80" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E80" s="37" t="s">
+      <c r="E80" s="36" t="s">
         <v>119</v>
       </c>
       <c r="G80" s="13" t="s">
@@ -4273,13 +4267,13 @@
       </c>
     </row>
     <row r="81" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="35" t="s">
         <v>121</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E81" s="37" t="s">
+      <c r="E81" s="36" t="s">
         <v>119</v>
       </c>
       <c r="G81" s="13" t="s">
@@ -4287,13 +4281,13 @@
       </c>
     </row>
     <row r="82" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="35" t="s">
         <v>124</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E82" s="37" t="s">
+      <c r="E82" s="36" t="s">
         <v>119</v>
       </c>
       <c r="G82" s="13" t="s">
@@ -4301,7 +4295,7 @@
       </c>
     </row>
     <row r="83" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="35" t="s">
         <v>127</v>
       </c>
       <c r="C83" s="13" t="s">
@@ -4310,7 +4304,7 @@
       <c r="D83" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E83" s="37" t="s">
+      <c r="E83" s="36" t="s">
         <v>119</v>
       </c>
       <c r="G83" s="13" t="s">
@@ -4318,11 +4312,11 @@
       </c>
     </row>
     <row r="84" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B84" s="36"/>
+      <c r="B84" s="35"/>
       <c r="D84" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E84" s="37" t="s">
+      <c r="E84" s="36" t="s">
         <v>119</v>
       </c>
       <c r="G84" s="13" t="s">
@@ -4330,7 +4324,7 @@
       </c>
     </row>
     <row r="85" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="35" t="s">
         <v>133</v>
       </c>
       <c r="C85" s="13" t="s">
@@ -4339,7 +4333,7 @@
       <c r="D85" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E85" s="37" t="s">
+      <c r="E85" s="36" t="s">
         <v>136</v>
       </c>
       <c r="G85" s="13" t="s">
@@ -4347,8 +4341,8 @@
       </c>
     </row>
     <row r="86" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B86" s="36"/>
-      <c r="E86" s="37" t="s">
+      <c r="B86" s="35"/>
+      <c r="E86" s="36" t="s">
         <v>136</v>
       </c>
       <c r="G86" s="13" t="s">
@@ -4356,13 +4350,13 @@
       </c>
     </row>
     <row r="87" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="35" t="s">
         <v>139</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E87" s="37" t="s">
+      <c r="E87" s="36" t="s">
         <v>136</v>
       </c>
       <c r="G87" s="13" t="s">
@@ -4370,8 +4364,8 @@
       </c>
     </row>
     <row r="88" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B88" s="36"/>
-      <c r="E88" s="37" t="s">
+      <c r="B88" s="35"/>
+      <c r="E88" s="36" t="s">
         <v>136</v>
       </c>
       <c r="G88" s="13" t="s">
@@ -4379,7 +4373,7 @@
       </c>
     </row>
     <row r="89" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="35" t="s">
         <v>143</v>
       </c>
       <c r="C89" s="13" t="s">
@@ -4388,7 +4382,7 @@
       <c r="D89" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E89" s="37" t="s">
+      <c r="E89" s="36" t="s">
         <v>119</v>
       </c>
       <c r="G89" s="13" t="s">
@@ -4396,8 +4390,8 @@
       </c>
     </row>
     <row r="90" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B90" s="36"/>
-      <c r="E90" s="37" t="s">
+      <c r="B90" s="35"/>
+      <c r="E90" s="36" t="s">
         <v>146</v>
       </c>
       <c r="G90" s="13" t="s">
@@ -4405,25 +4399,25 @@
       </c>
     </row>
     <row r="91" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B91" s="36"/>
+      <c r="B91" s="35"/>
       <c r="G91" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="92" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B92" s="36"/>
+      <c r="B92" s="35"/>
       <c r="G92" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="93" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B93" s="36"/>
+      <c r="B93" s="35"/>
       <c r="G93" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="94" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B94" s="36"/>
+      <c r="B94" s="35"/>
       <c r="D94" s="13" t="s">
         <v>129</v>
       </c>
@@ -4432,13 +4426,13 @@
       </c>
     </row>
     <row r="95" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B95" s="36"/>
+      <c r="B95" s="35"/>
       <c r="G95" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="96" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B96" s="36" t="s">
+      <c r="B96" s="35" t="s">
         <v>149</v>
       </c>
       <c r="C96" s="13" t="s">
@@ -4447,7 +4441,7 @@
       <c r="D96" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E96" s="47" t="s">
+      <c r="E96" s="46" t="s">
         <v>146</v>
       </c>
       <c r="G96" s="13" t="s">
@@ -4455,23 +4449,23 @@
       </c>
     </row>
     <row r="97" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B97" s="36"/>
+      <c r="B97" s="35"/>
       <c r="G97" s="13" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="98" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B98" s="36"/>
+      <c r="B98" s="35"/>
       <c r="G98" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="99" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B99" s="36"/>
+      <c r="B99" s="35"/>
       <c r="D99" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E99" s="47" t="s">
+      <c r="E99" s="46" t="s">
         <v>155</v>
       </c>
       <c r="G99" s="13" t="s">
@@ -4479,7 +4473,7 @@
       </c>
     </row>
     <row r="100" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B100" s="36" t="s">
+      <c r="B100" s="35" t="s">
         <v>157</v>
       </c>
       <c r="C100" s="13" t="s">
@@ -4488,7 +4482,7 @@
       <c r="D100" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="47" t="s">
+      <c r="E100" s="46" t="s">
         <v>146</v>
       </c>
       <c r="G100" s="13" t="s">
@@ -4496,7 +4490,7 @@
       </c>
     </row>
     <row r="101" s="13" customFormat="1" ht="94" customHeight="1" spans="2:7">
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="35" t="s">
         <v>160</v>
       </c>
       <c r="C101" s="13" t="s">
@@ -4507,7 +4501,7 @@
       </c>
     </row>
     <row r="102" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B102" s="36" t="s">
+      <c r="B102" s="35" t="s">
         <v>162</v>
       </c>
       <c r="C102" s="13" t="s">
@@ -4518,7 +4512,7 @@
       </c>
     </row>
     <row r="103" s="13" customFormat="1" ht="89" customHeight="1" spans="2:7">
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="35" t="s">
         <v>164</v>
       </c>
       <c r="C103" s="13" t="s">
@@ -4527,7 +4521,7 @@
       <c r="D103" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E103" s="47" t="s">
+      <c r="E103" s="46" t="s">
         <v>146</v>
       </c>
       <c r="G103" s="13" t="s">
@@ -4535,305 +4529,254 @@
       </c>
     </row>
     <row r="104" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B104" s="36"/>
+      <c r="B104" s="35"/>
       <c r="G104" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="105" s="13" customFormat="1" ht="80" customHeight="1" spans="2:2">
-      <c r="B105" s="36"/>
-    </row>
-    <row r="106" s="6" customFormat="1" ht="24.95" customHeight="1" spans="1:47">
-      <c r="A106" s="7"/>
-      <c r="B106" s="48"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
-      <c r="P106" s="7"/>
-      <c r="Q106" s="7"/>
-      <c r="R106" s="7"/>
-      <c r="S106" s="7"/>
-      <c r="T106" s="7"/>
-      <c r="U106" s="7"/>
-      <c r="V106" s="7"/>
-      <c r="W106" s="7"/>
-      <c r="X106" s="7"/>
-      <c r="Y106" s="7"/>
-      <c r="Z106" s="7"/>
-      <c r="AA106" s="7"/>
-      <c r="AB106" s="7"/>
-      <c r="AC106" s="7"/>
-      <c r="AD106" s="7"/>
-      <c r="AE106" s="7"/>
-      <c r="AF106" s="7"/>
-      <c r="AG106" s="7"/>
-      <c r="AH106" s="7"/>
-      <c r="AI106" s="7"/>
-      <c r="AJ106" s="7"/>
-      <c r="AK106" s="7"/>
-      <c r="AL106" s="7"/>
-      <c r="AM106" s="7"/>
-      <c r="AN106" s="7"/>
-      <c r="AO106" s="7"/>
-      <c r="AP106" s="7"/>
-      <c r="AQ106" s="7"/>
-      <c r="AR106" s="7"/>
-      <c r="AS106" s="7"/>
-      <c r="AT106" s="7"/>
-      <c r="AU106" s="7"/>
-    </row>
-    <row r="107" s="14" customFormat="1" ht="18" spans="1:47">
-      <c r="A107" s="49" t="s">
+    <row r="105" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
+      <c r="B105" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="B107" s="49"/>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="49"/>
-      <c r="G107" s="49"/>
-      <c r="H107" s="49"/>
-      <c r="I107" s="49"/>
-      <c r="J107" s="49"/>
-      <c r="K107" s="49"/>
-      <c r="L107" s="49"/>
-      <c r="M107" s="49"/>
-      <c r="N107" s="49"/>
-      <c r="O107" s="49"/>
-      <c r="P107" s="49"/>
-      <c r="Q107" s="49"/>
-      <c r="R107" s="49"/>
-      <c r="S107" s="49"/>
-      <c r="T107" s="49"/>
-      <c r="U107" s="49"/>
-      <c r="V107" s="49"/>
-      <c r="W107" s="49"/>
-      <c r="X107" s="49"/>
-      <c r="Y107" s="49"/>
-      <c r="Z107" s="49"/>
-      <c r="AA107" s="49"/>
-      <c r="AB107" s="49"/>
-      <c r="AC107" s="49"/>
-      <c r="AD107" s="49"/>
-      <c r="AE107" s="49"/>
-      <c r="AF107" s="49"/>
-      <c r="AG107" s="49"/>
-      <c r="AH107" s="49"/>
-      <c r="AI107" s="49"/>
-      <c r="AJ107" s="49"/>
-      <c r="AK107" s="49"/>
-      <c r="AL107" s="49"/>
-      <c r="AM107" s="49"/>
-      <c r="AN107" s="49"/>
-      <c r="AO107" s="49"/>
-      <c r="AP107" s="49"/>
-      <c r="AQ107" s="49"/>
-      <c r="AR107" s="49"/>
-      <c r="AS107" s="49"/>
-      <c r="AT107" s="49"/>
-      <c r="AU107" s="49"/>
-    </row>
-    <row r="108" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:47">
-      <c r="A108" s="7" t="s">
+      <c r="C105" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="7"/>
-      <c r="T108" s="7"/>
-      <c r="U108" s="7"/>
-      <c r="V108" s="7"/>
-      <c r="W108" s="7"/>
-      <c r="X108" s="7"/>
-      <c r="Y108" s="7"/>
-      <c r="Z108" s="7"/>
-      <c r="AA108" s="7"/>
-      <c r="AB108" s="7"/>
-      <c r="AC108" s="7"/>
-      <c r="AD108" s="7"/>
-      <c r="AE108" s="7"/>
-      <c r="AF108" s="7"/>
-      <c r="AG108" s="7"/>
-      <c r="AH108" s="7"/>
-      <c r="AI108" s="7"/>
-      <c r="AJ108" s="7"/>
-      <c r="AK108" s="7"/>
-      <c r="AL108" s="7"/>
-      <c r="AM108" s="7"/>
-      <c r="AN108" s="7"/>
-      <c r="AO108" s="7"/>
-      <c r="AP108" s="7"/>
-      <c r="AQ108" s="7"/>
-      <c r="AR108" s="7"/>
-      <c r="AS108" s="7"/>
-      <c r="AT108" s="7"/>
-      <c r="AU108" s="7"/>
-    </row>
-    <row r="109" s="6" customFormat="1" ht="21" customHeight="1" spans="1:47">
-      <c r="A109" s="31" t="s">
+      <c r="D105" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
+      <c r="B106" s="35"/>
+      <c r="G106" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
+      <c r="B107" s="35"/>
+      <c r="G107" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
+      <c r="B108" s="35"/>
+      <c r="G108" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
+      <c r="B109" s="35"/>
+      <c r="G109" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="110" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
+      <c r="B110" s="35"/>
+      <c r="G110" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
+      <c r="B111" s="35"/>
+      <c r="G111" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:47">
+      <c r="A112" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="7"/>
+      <c r="R112" s="7"/>
+      <c r="S112" s="7"/>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+      <c r="V112" s="7"/>
+      <c r="W112" s="7"/>
+      <c r="X112" s="7"/>
+      <c r="Y112" s="7"/>
+      <c r="Z112" s="7"/>
+      <c r="AA112" s="7"/>
+      <c r="AB112" s="7"/>
+      <c r="AC112" s="7"/>
+      <c r="AD112" s="7"/>
+      <c r="AE112" s="7"/>
+      <c r="AF112" s="7"/>
+      <c r="AG112" s="7"/>
+      <c r="AH112" s="7"/>
+      <c r="AI112" s="7"/>
+      <c r="AJ112" s="7"/>
+      <c r="AK112" s="7"/>
+      <c r="AL112" s="7"/>
+      <c r="AM112" s="7"/>
+      <c r="AN112" s="7"/>
+      <c r="AO112" s="7"/>
+      <c r="AP112" s="7"/>
+      <c r="AQ112" s="7"/>
+      <c r="AR112" s="7"/>
+      <c r="AS112" s="7"/>
+      <c r="AT112" s="7"/>
+      <c r="AU112" s="7"/>
+    </row>
+    <row r="113" s="6" customFormat="1" ht="21" customHeight="1" spans="1:47">
+      <c r="A113" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="31"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="7"/>
-      <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="7"/>
-      <c r="R109" s="7"/>
-      <c r="S109" s="7"/>
-      <c r="T109" s="7"/>
-      <c r="U109" s="7"/>
-      <c r="V109" s="7"/>
-      <c r="W109" s="7"/>
-      <c r="X109" s="7"/>
-      <c r="Y109" s="7"/>
-      <c r="Z109" s="7"/>
-      <c r="AA109" s="7"/>
-      <c r="AB109" s="7"/>
-      <c r="AC109" s="7"/>
-      <c r="AD109" s="7"/>
-      <c r="AE109" s="7"/>
-      <c r="AF109" s="7"/>
-      <c r="AG109" s="7"/>
-      <c r="AH109" s="7"/>
-      <c r="AI109" s="7"/>
-      <c r="AJ109" s="7"/>
-      <c r="AK109" s="7"/>
-      <c r="AL109" s="7"/>
-      <c r="AM109" s="7"/>
-      <c r="AN109" s="7"/>
-      <c r="AO109" s="7"/>
-      <c r="AP109" s="7"/>
-      <c r="AQ109" s="7"/>
-      <c r="AR109" s="7"/>
-      <c r="AS109" s="7"/>
-      <c r="AT109" s="7"/>
-      <c r="AU109" s="7"/>
-    </row>
-    <row r="110" s="6" customFormat="1" ht="18" spans="2:47">
-      <c r="B110" s="50"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="7"/>
-      <c r="U110" s="7"/>
-      <c r="V110" s="7"/>
-      <c r="W110" s="7"/>
-      <c r="X110" s="7"/>
-      <c r="Y110" s="7"/>
-      <c r="Z110" s="7"/>
-      <c r="AA110" s="7"/>
-      <c r="AB110" s="7"/>
-      <c r="AC110" s="7"/>
-      <c r="AD110" s="7"/>
-      <c r="AE110" s="7"/>
-      <c r="AF110" s="7"/>
-      <c r="AG110" s="7"/>
-      <c r="AH110" s="7"/>
-      <c r="AI110" s="7"/>
-      <c r="AJ110" s="7"/>
-      <c r="AK110" s="7"/>
-      <c r="AL110" s="7"/>
-      <c r="AM110" s="7"/>
-      <c r="AN110" s="7"/>
-      <c r="AO110" s="7"/>
-      <c r="AP110" s="7"/>
-      <c r="AQ110" s="7"/>
-      <c r="AR110" s="7"/>
-      <c r="AS110" s="7"/>
-      <c r="AT110" s="7"/>
-      <c r="AU110" s="7"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7"/>
+      <c r="S113" s="7"/>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+      <c r="V113" s="7"/>
+      <c r="W113" s="7"/>
+      <c r="X113" s="7"/>
+      <c r="Y113" s="7"/>
+      <c r="Z113" s="7"/>
+      <c r="AA113" s="7"/>
+      <c r="AB113" s="7"/>
+      <c r="AC113" s="7"/>
+      <c r="AD113" s="7"/>
+      <c r="AE113" s="7"/>
+      <c r="AF113" s="7"/>
+      <c r="AG113" s="7"/>
+      <c r="AH113" s="7"/>
+      <c r="AI113" s="7"/>
+      <c r="AJ113" s="7"/>
+      <c r="AK113" s="7"/>
+      <c r="AL113" s="7"/>
+      <c r="AM113" s="7"/>
+      <c r="AN113" s="7"/>
+      <c r="AO113" s="7"/>
+      <c r="AP113" s="7"/>
+      <c r="AQ113" s="7"/>
+      <c r="AR113" s="7"/>
+      <c r="AS113" s="7"/>
+      <c r="AT113" s="7"/>
+      <c r="AU113" s="7"/>
+    </row>
+    <row r="114" s="6" customFormat="1" ht="18" spans="2:47">
+      <c r="B114" s="47"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="7"/>
+      <c r="R114" s="7"/>
+      <c r="S114" s="7"/>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+      <c r="V114" s="7"/>
+      <c r="W114" s="7"/>
+      <c r="X114" s="7"/>
+      <c r="Y114" s="7"/>
+      <c r="Z114" s="7"/>
+      <c r="AA114" s="7"/>
+      <c r="AB114" s="7"/>
+      <c r="AC114" s="7"/>
+      <c r="AD114" s="7"/>
+      <c r="AE114" s="7"/>
+      <c r="AF114" s="7"/>
+      <c r="AG114" s="7"/>
+      <c r="AH114" s="7"/>
+      <c r="AI114" s="7"/>
+      <c r="AJ114" s="7"/>
+      <c r="AK114" s="7"/>
+      <c r="AL114" s="7"/>
+      <c r="AM114" s="7"/>
+      <c r="AN114" s="7"/>
+      <c r="AO114" s="7"/>
+      <c r="AP114" s="7"/>
+      <c r="AQ114" s="7"/>
+      <c r="AR114" s="7"/>
+      <c r="AS114" s="7"/>
+      <c r="AT114" s="7"/>
+      <c r="AU114" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A36:I36"/>
     <mergeCell ref="A37:I37"/>
     <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A107:I107"/>
-    <mergeCell ref="A108:I108"/>
-    <mergeCell ref="A109:I109"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="A113:I113"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E103" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=statusactive#"/>
-    <hyperlink ref="E100" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=statusactive#"/>
-    <hyperlink ref="E99" r:id="rId2" display="http://jantv.in/gps/includes/pages/status_since_last_active_notification.php"/>
-    <hyperlink ref="E96" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=statusactive#"/>
-    <hyperlink ref="E90" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=statusactive#"/>
-    <hyperlink ref="E89" r:id="rId3" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
-    <hyperlink ref="E88" r:id="rId4" display="http://www.jantv.in/gps/index.php?p=tripreport"/>
-    <hyperlink ref="E87" r:id="rId4" display="http://www.jantv.in/gps/index.php?p=tripreport"/>
-    <hyperlink ref="E86" r:id="rId4" display="http://www.jantv.in/gps/index.php?p=tripreport"/>
-    <hyperlink ref="E85" r:id="rId4" display="http://www.jantv.in/gps/index.php?p=tripreport"/>
-    <hyperlink ref="E84" r:id="rId3" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
-    <hyperlink ref="E83" r:id="rId3" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
-    <hyperlink ref="E82" r:id="rId3" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
-    <hyperlink ref="E81" r:id="rId3" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
-    <hyperlink ref="E80" r:id="rId3" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
-    <hyperlink ref="E79" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_history"/>
-    <hyperlink ref="E78" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_history"/>
-    <hyperlink ref="E77" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_history"/>
-    <hyperlink ref="E76" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_history"/>
-    <hyperlink ref="E75" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_history"/>
-    <hyperlink ref="E74" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_live"/>
-    <hyperlink ref="E73" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_live"/>
-    <hyperlink ref="E72" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_live"/>
-    <hyperlink ref="E71" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_live"/>
-    <hyperlink ref="E70" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_live"/>
-    <hyperlink ref="E69" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_live"/>
-    <hyperlink ref="E68" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_live"/>
-    <hyperlink ref="E66" r:id="rId7" display="http://www.jantv.in/gps/index.php?pd_p=admin_user_account&amp;pd_uid_override=&amp;p=admin_user_track_config&amp;user_id=2"/>
-    <hyperlink ref="E56" r:id="rId8" display="http://www.jantv.in/gps/index.php?pd_pd_p=admin_user_account&amp;pd_pd_uid_override=&amp;pd_p=admin_user_track_config&amp;pd_user_id=2&amp;p=admin_user_track_config_addedit&amp;user_id=2"/>
-    <hyperlink ref="E55" r:id="rId7" display="http://www.jantv.in/gps/index.php?pd_p=admin_user_account&amp;pd_uid_override=&amp;p=admin_user_track_config&amp;user_id=2"/>
-    <hyperlink ref="E54" r:id="rId7" display="http://www.jantv.in/gps/index.php?pd_p=admin_user_account&amp;pd_uid_override=&amp;p=admin_user_track_config&amp;user_id=2"/>
-    <hyperlink ref="E51" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
-    <hyperlink ref="E50" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
-    <hyperlink ref="E49" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
-    <hyperlink ref="E48" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
-    <hyperlink ref="E43" r:id="rId10" display="http://www.jantv.in/gps/index.php?pd_p=admin_user_account&amp;p=admin_user_addedit"/>
-    <hyperlink ref="E42" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
+    <hyperlink ref="E42" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
+    <hyperlink ref="E43" r:id="rId2" display="http://www.jantv.in/gps/index.php?pd_p=admin_user_account&amp;p=admin_user_addedit"/>
+    <hyperlink ref="E48" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
+    <hyperlink ref="E49" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
+    <hyperlink ref="E50" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
+    <hyperlink ref="E51" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
+    <hyperlink ref="E54" r:id="rId3" display="http://www.jantv.in/gps/index.php?pd_p=admin_user_account&amp;pd_uid_override=&amp;p=admin_user_track_config&amp;user_id=2"/>
+    <hyperlink ref="E55" r:id="rId3" display="http://www.jantv.in/gps/index.php?pd_p=admin_user_account&amp;pd_uid_override=&amp;p=admin_user_track_config&amp;user_id=2"/>
+    <hyperlink ref="E56" r:id="rId4" display="http://www.jantv.in/gps/index.php?pd_pd_p=admin_user_account&amp;pd_pd_uid_override=&amp;pd_p=admin_user_track_config&amp;pd_user_id=2&amp;p=admin_user_track_config_addedit&amp;user_id=2"/>
+    <hyperlink ref="E66" r:id="rId3" display="http://www.jantv.in/gps/index.php?pd_p=admin_user_account&amp;pd_uid_override=&amp;p=admin_user_track_config&amp;user_id=2"/>
+    <hyperlink ref="E68" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_live"/>
+    <hyperlink ref="E69" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_live"/>
+    <hyperlink ref="E70" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_live"/>
+    <hyperlink ref="E71" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_live"/>
+    <hyperlink ref="E72" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_live"/>
+    <hyperlink ref="E73" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_live"/>
+    <hyperlink ref="E74" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_live"/>
+    <hyperlink ref="E75" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_history"/>
+    <hyperlink ref="E76" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_history"/>
+    <hyperlink ref="E77" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_history"/>
+    <hyperlink ref="E78" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_history"/>
+    <hyperlink ref="E79" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_history"/>
+    <hyperlink ref="E80" r:id="rId7" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
+    <hyperlink ref="E81" r:id="rId7" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
+    <hyperlink ref="E82" r:id="rId7" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
+    <hyperlink ref="E83" r:id="rId7" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
+    <hyperlink ref="E84" r:id="rId7" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
+    <hyperlink ref="E85" r:id="rId8" display="http://www.jantv.in/gps/index.php?p=tripreport"/>
+    <hyperlink ref="E86" r:id="rId8" display="http://www.jantv.in/gps/index.php?p=tripreport"/>
+    <hyperlink ref="E87" r:id="rId8" display="http://www.jantv.in/gps/index.php?p=tripreport"/>
+    <hyperlink ref="E88" r:id="rId8" display="http://www.jantv.in/gps/index.php?p=tripreport"/>
+    <hyperlink ref="E89" r:id="rId7" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
+    <hyperlink ref="E90" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=statusactive#"/>
+    <hyperlink ref="E96" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=statusactive#"/>
+    <hyperlink ref="E99" r:id="rId10" display="http://jantv.in/gps/includes/pages/status_since_last_active_notification.php"/>
+    <hyperlink ref="E100" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=statusactive#"/>
+    <hyperlink ref="E103" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=statusactive#"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.729166666666667" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" scale="80" orientation="landscape"/>
@@ -4862,37 +4805,37 @@
   <sheetData>
     <row r="1" ht="30" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -5092,7 +5035,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="4" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5107,7 +5050,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -5122,7 +5065,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>

--- a/ProjectDocs/RT Matrix.xlsx
+++ b/ProjectDocs/RT Matrix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
   <si>
     <t>INSTRUCTIONS FOR USE</t>
   </si>
@@ -30,12 +30,12 @@
     <t>Requirement Document</t>
   </si>
   <si>
+    <t>Requirement Reference #</t>
+  </si>
+  <si>
     <t>Insert the name of the Requirement Document and the version.</t>
   </si>
   <si>
-    <t>Requirement Reference #</t>
-  </si>
-  <si>
     <t>Enter the Requirements Document paragraph number.</t>
   </si>
   <si>
@@ -48,12 +48,12 @@
     <t>Design Specification Paragraph #</t>
   </si>
   <si>
+    <t>Program</t>
+  </si>
+  <si>
     <t>Enter the name of the corresponding design document and the associated paragraph #.</t>
   </si>
   <si>
-    <t>Program</t>
-  </si>
-  <si>
     <t>Enter the name of the program(s) that holds the coding for this requirement.</t>
   </si>
   <si>
@@ -66,10 +66,10 @@
     <t>Test Case #(s)</t>
   </si>
   <si>
+    <t>Test Results</t>
+  </si>
+  <si>
     <t>Enter the test case #(s) that tests this requirement.</t>
-  </si>
-  <si>
-    <t>Test Results</t>
   </si>
   <si>
     <t xml:space="preserve">Enter the status of the test for this function and identify where the results are. </t>
@@ -98,7 +98,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">                                                                                                                                   </t>
+      <t xml:space="preserve">                                                                                                                               </t>
     </r>
     <r>
       <rPr>
@@ -206,6 +206,9 @@
     <t>CSL_TRACKER_ADD_USER_TC02</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Figure 9</t>
   </si>
   <si>
@@ -375,6 +378,12 @@
   </si>
   <si>
     <t>CSL_TRACKER_LIVE_TRACKING_TC06</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Proposed for further improvements</t>
   </si>
   <si>
     <t>CSL_TRACKER_LIVE_TRACKING_TC07</t>
@@ -687,8 +696,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="13">
@@ -927,7 +936,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -955,6 +964,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -963,6 +975,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -974,8 +989,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,6 +1012,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1009,12 +1043,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1040,6 +1080,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1383,10 +1426,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AU114"/>
+  <dimension ref="A1:AU103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1397,35 +1440,35 @@
     <col min="4" max="4" width="26.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="28.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="37.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="45.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="23.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="47.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="23.8571428571429" style="15" customWidth="1"/>
     <col min="9" max="9" width="46.7142857142857" customWidth="1"/>
     <col min="10" max="47" width="9.14285714285714" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:9">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="39"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="40"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -1466,17 +1509,17 @@
       <c r="AU2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="40"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="51"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -1517,15 +1560,15 @@
       <c r="AU3" s="7"/>
     </row>
     <row r="4" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A4" s="22"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="40"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -1566,17 +1609,17 @@
       <c r="AU4" s="7"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="40"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -1617,17 +1660,19 @@
       <c r="AU5" s="7"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="40"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -1668,17 +1713,19 @@
       <c r="AU6" s="7"/>
     </row>
     <row r="7" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A7" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="40"/>
+      <c r="A7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -1719,15 +1766,15 @@
       <c r="AU7" s="7"/>
     </row>
     <row r="8" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A8" s="22"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="40"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -1768,17 +1815,17 @@
       <c r="AU8" s="7"/>
     </row>
     <row r="9" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="40"/>
+      <c r="A9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -1819,17 +1866,17 @@
       <c r="AU9" s="7"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A10" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="40"/>
+      <c r="A10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1870,15 +1917,15 @@
       <c r="AU10" s="7"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A11" s="22"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="40"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="51"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1919,17 +1966,19 @@
       <c r="AU11" s="7"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A12" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="40"/>
+      <c r="A12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="51"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1970,17 +2019,19 @@
       <c r="AU12" s="7"/>
     </row>
     <row r="13" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="40"/>
+      <c r="A13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -2021,15 +2072,15 @@
       <c r="AU13" s="7"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A14" s="22"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="40"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="51"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -2070,17 +2121,17 @@
       <c r="AU14" s="7"/>
     </row>
     <row r="15" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="40"/>
+      <c r="A15" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -2121,17 +2172,17 @@
       <c r="AU15" s="7"/>
     </row>
     <row r="16" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A16" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="40"/>
+      <c r="A16" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -2172,15 +2223,15 @@
       <c r="AU16" s="7"/>
     </row>
     <row r="17" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A17" s="22"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="40"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -2221,17 +2272,19 @@
       <c r="AU17" s="7"/>
     </row>
     <row r="18" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A18" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="40"/>
+      <c r="A18" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -2272,17 +2325,19 @@
       <c r="AU18" s="7"/>
     </row>
     <row r="19" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A19" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="40"/>
+      <c r="A19" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -2323,15 +2378,15 @@
       <c r="AU19" s="7"/>
     </row>
     <row r="20" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A20" s="22"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="40"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -2372,17 +2427,17 @@
       <c r="AU20" s="7"/>
     </row>
     <row r="21" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A21" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="40"/>
+      <c r="A21" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="51"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -2423,17 +2478,17 @@
       <c r="AU21" s="7"/>
     </row>
     <row r="22" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="40"/>
+      <c r="A22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="51"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -2474,15 +2529,15 @@
       <c r="AU22" s="7"/>
     </row>
     <row r="23" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A23" s="22"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="40"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -2522,220 +2577,44 @@
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
     </row>
-    <row r="24" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A24" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="7"/>
-      <c r="AO24" s="7"/>
-      <c r="AP24" s="7"/>
-      <c r="AQ24" s="7"/>
-      <c r="AR24" s="7"/>
-      <c r="AS24" s="7"/>
-      <c r="AT24" s="7"/>
-      <c r="AU24" s="7"/>
-    </row>
-    <row r="25" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A25" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
-      <c r="AR25" s="7"/>
-      <c r="AS25" s="7"/>
-      <c r="AT25" s="7"/>
-      <c r="AU25" s="7"/>
-    </row>
-    <row r="26" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A26" s="22"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="7"/>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="7"/>
-      <c r="AP26" s="7"/>
-      <c r="AQ26" s="7"/>
-      <c r="AR26" s="7"/>
-      <c r="AS26" s="7"/>
-      <c r="AT26" s="7"/>
-      <c r="AU26" s="7"/>
-    </row>
-    <row r="27" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A27" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="7"/>
-      <c r="AO27" s="7"/>
-      <c r="AP27" s="7"/>
-      <c r="AQ27" s="7"/>
-      <c r="AR27" s="7"/>
-      <c r="AS27" s="7"/>
-      <c r="AT27" s="7"/>
-      <c r="AU27" s="7"/>
-    </row>
-    <row r="28" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A28" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="40"/>
+    <row r="24" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" s="8" customFormat="1" ht="18" spans="1:8">
+      <c r="A25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" s="9" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" s="7" customFormat="1" ht="15" customHeight="1" spans="8:8">
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="18" spans="1:47">
+      <c r="A28" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2775,473 +2654,515 @@
       <c r="AT28" s="7"/>
       <c r="AU28" s="7"/>
     </row>
-    <row r="29" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A29" s="22"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7"/>
-      <c r="AJ29" s="7"/>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="7"/>
-      <c r="AM29" s="7"/>
-      <c r="AN29" s="7"/>
-      <c r="AO29" s="7"/>
-      <c r="AP29" s="7"/>
-      <c r="AQ29" s="7"/>
-      <c r="AR29" s="7"/>
-      <c r="AS29" s="7"/>
-      <c r="AT29" s="7"/>
-      <c r="AU29" s="7"/>
-    </row>
-    <row r="30" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A30" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
-      <c r="AK30" s="7"/>
-      <c r="AL30" s="7"/>
-      <c r="AM30" s="7"/>
-      <c r="AN30" s="7"/>
-      <c r="AO30" s="7"/>
-      <c r="AP30" s="7"/>
-      <c r="AQ30" s="7"/>
-      <c r="AR30" s="7"/>
-      <c r="AS30" s="7"/>
-      <c r="AT30" s="7"/>
-      <c r="AU30" s="7"/>
-    </row>
-    <row r="31" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A31" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
-      <c r="AJ31" s="7"/>
-      <c r="AK31" s="7"/>
-      <c r="AL31" s="7"/>
-      <c r="AM31" s="7"/>
-      <c r="AN31" s="7"/>
-      <c r="AO31" s="7"/>
-      <c r="AP31" s="7"/>
-      <c r="AQ31" s="7"/>
-      <c r="AR31" s="7"/>
-      <c r="AS31" s="7"/>
-      <c r="AT31" s="7"/>
-      <c r="AU31" s="7"/>
-    </row>
-    <row r="32" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A32" s="22"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7"/>
-      <c r="AJ32" s="7"/>
-      <c r="AK32" s="7"/>
-      <c r="AL32" s="7"/>
-      <c r="AM32" s="7"/>
-      <c r="AN32" s="7"/>
-      <c r="AO32" s="7"/>
-      <c r="AP32" s="7"/>
-      <c r="AQ32" s="7"/>
-      <c r="AR32" s="7"/>
-      <c r="AS32" s="7"/>
-      <c r="AT32" s="7"/>
-      <c r="AU32" s="7"/>
-    </row>
-    <row r="33" s="6" customFormat="1" ht="18.75" spans="1:47">
-      <c r="A33" s="22"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7"/>
-      <c r="AJ33" s="7"/>
-      <c r="AK33" s="7"/>
-      <c r="AL33" s="7"/>
-      <c r="AM33" s="7"/>
-      <c r="AN33" s="7"/>
-      <c r="AO33" s="7"/>
-      <c r="AP33" s="7"/>
-      <c r="AQ33" s="7"/>
-      <c r="AR33" s="7"/>
-      <c r="AS33" s="7"/>
-      <c r="AT33" s="7"/>
-      <c r="AU33" s="7"/>
-    </row>
-    <row r="34" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:47">
-      <c r="A34" s="22"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="7"/>
-      <c r="AJ34" s="7"/>
-      <c r="AK34" s="7"/>
-      <c r="AL34" s="7"/>
-      <c r="AM34" s="7"/>
-      <c r="AN34" s="7"/>
-      <c r="AO34" s="7"/>
-      <c r="AP34" s="7"/>
-      <c r="AQ34" s="7"/>
-      <c r="AR34" s="7"/>
-      <c r="AS34" s="7"/>
-      <c r="AT34" s="7"/>
-      <c r="AU34" s="7"/>
-    </row>
-    <row r="35" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="41"/>
-    </row>
-    <row r="36" s="8" customFormat="1" ht="18" spans="1:1">
-      <c r="A36" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" s="9" customFormat="1" ht="15" customHeight="1" spans="1:1">
-      <c r="A37" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" s="7" customFormat="1" ht="15" customHeight="1"/>
-    <row r="39" s="6" customFormat="1" ht="18" spans="1:47">
-      <c r="A39" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="7"/>
-      <c r="AD39" s="7"/>
-      <c r="AE39" s="7"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="7"/>
-      <c r="AJ39" s="7"/>
-      <c r="AK39" s="7"/>
-      <c r="AL39" s="7"/>
-      <c r="AM39" s="7"/>
-      <c r="AN39" s="7"/>
-      <c r="AO39" s="7"/>
-      <c r="AP39" s="7"/>
-      <c r="AQ39" s="7"/>
-      <c r="AR39" s="7"/>
-      <c r="AS39" s="7"/>
-      <c r="AT39" s="7"/>
-      <c r="AU39" s="7"/>
-    </row>
-    <row r="40" s="10" customFormat="1" ht="36.75" customHeight="1" spans="1:47">
-      <c r="A40" s="31" t="s">
+    <row r="29" s="10" customFormat="1" ht="36.75" customHeight="1" spans="1:47">
+      <c r="A29" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B29" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C29" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D29" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="31" t="s">
+      <c r="E29" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="31" t="s">
+      <c r="G29" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="31" t="s">
+      <c r="H29" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="42"/>
-      <c r="AB40" s="42"/>
-      <c r="AC40" s="42"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="42"/>
-      <c r="AH40" s="42"/>
-      <c r="AI40" s="42"/>
-      <c r="AJ40" s="42"/>
-      <c r="AK40" s="42"/>
-      <c r="AL40" s="42"/>
-      <c r="AM40" s="42"/>
-      <c r="AN40" s="42"/>
-      <c r="AO40" s="42"/>
-      <c r="AP40" s="42"/>
-      <c r="AQ40" s="42"/>
-      <c r="AR40" s="42"/>
-      <c r="AS40" s="42"/>
-      <c r="AT40" s="42"/>
-      <c r="AU40" s="42"/>
-    </row>
-    <row r="41" s="11" customFormat="1" ht="70.5" customHeight="1" spans="1:47">
-      <c r="A41" s="33" t="s">
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="53"/>
+      <c r="AK29" s="53"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="53"/>
+      <c r="AN29" s="53"/>
+      <c r="AO29" s="53"/>
+      <c r="AP29" s="53"/>
+      <c r="AQ29" s="53"/>
+      <c r="AR29" s="53"/>
+      <c r="AS29" s="53"/>
+      <c r="AT29" s="53"/>
+      <c r="AU29" s="53"/>
+    </row>
+    <row r="30" s="11" customFormat="1" ht="70.5" customHeight="1" spans="1:47">
+      <c r="A30" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="34">
+      <c r="B30" s="43">
         <v>1</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C30" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D30" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E30" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F30" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G30" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="H30" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="43" t="s">
+      <c r="I30" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="44"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="12"/>
+    </row>
+    <row r="31" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
+      <c r="A31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="56"/>
+      <c r="J31" s="55"/>
+    </row>
+    <row r="32" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
+      <c r="A32" s="13"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="56"/>
+      <c r="J32" s="55"/>
+    </row>
+    <row r="33" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
+      <c r="A33" s="13"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="56"/>
+      <c r="J33" s="55"/>
+    </row>
+    <row r="34" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
+      <c r="A34" s="13"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="56"/>
+      <c r="J34" s="55"/>
+    </row>
+    <row r="35" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
+      <c r="A35" s="13"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="56"/>
+      <c r="J35" s="55"/>
+    </row>
+    <row r="36" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
+      <c r="A36" s="13"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="56"/>
+      <c r="J36" s="55"/>
+    </row>
+    <row r="37" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
+      <c r="A37" s="13"/>
+      <c r="B37" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="56"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="12"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="12"/>
+      <c r="AS37" s="12"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+    </row>
+    <row r="38" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
+      <c r="A38" s="13"/>
+      <c r="B38" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="56"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="12"/>
+      <c r="AP38" s="12"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="12"/>
+      <c r="AS38" s="12"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+    </row>
+    <row r="39" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
+      <c r="A39" s="13"/>
+      <c r="B39" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="56"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="12"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+    </row>
+    <row r="40" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
+      <c r="A40" s="13"/>
+      <c r="B40" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="56"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="12"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+    </row>
+    <row r="41" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
+      <c r="A41" s="13"/>
+      <c r="B41" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
@@ -3280,127 +3201,359 @@
       <c r="AT41" s="12"/>
       <c r="AU41" s="12"/>
     </row>
-    <row r="42" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
-      <c r="A42" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>38</v>
+    <row r="42" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
+      <c r="A42" s="13"/>
+      <c r="B42" s="44" t="s">
+        <v>62</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>42</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
       <c r="G42" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="44"/>
-    </row>
-    <row r="43" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
+        <v>66</v>
+      </c>
+      <c r="H42" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="12"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+      <c r="AS42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+    </row>
+    <row r="43" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
       <c r="A43" s="13"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="D43" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="36" t="s">
-        <v>45</v>
+        <v>69</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>70</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="44"/>
-    </row>
-    <row r="44" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="H43" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
+      <c r="AO43" s="12"/>
+      <c r="AP43" s="12"/>
+      <c r="AQ43" s="12"/>
+      <c r="AR43" s="12"/>
+      <c r="AS43" s="12"/>
+      <c r="AT43" s="12"/>
+      <c r="AU43" s="12"/>
+    </row>
+    <row r="44" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
       <c r="A44" s="13"/>
-      <c r="B44" s="35"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="D44" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>70</v>
+      </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="44"/>
-    </row>
-    <row r="45" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
+        <v>72</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="12"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="12"/>
+      <c r="AS44" s="12"/>
+      <c r="AT44" s="12"/>
+      <c r="AU44" s="12"/>
+    </row>
+    <row r="45" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
       <c r="A45" s="13"/>
-      <c r="B45" s="35"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
+      <c r="D45" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>74</v>
+      </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="44"/>
-    </row>
-    <row r="46" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
+        <v>75</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="12"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="12"/>
+      <c r="AS45" s="12"/>
+      <c r="AT45" s="12"/>
+      <c r="AU45" s="12"/>
+    </row>
+    <row r="46" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
       <c r="A46" s="13"/>
-      <c r="B46" s="35"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="44"/>
-    </row>
-    <row r="47" s="12" customFormat="1" ht="80" customHeight="1" spans="1:10">
+        <v>76</v>
+      </c>
+      <c r="H46" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="13"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="12"/>
+      <c r="AO46" s="12"/>
+      <c r="AP46" s="12"/>
+      <c r="AQ46" s="12"/>
+      <c r="AR46" s="12"/>
+      <c r="AS46" s="12"/>
+      <c r="AT46" s="12"/>
+      <c r="AU46" s="12"/>
+    </row>
+    <row r="47" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
       <c r="A47" s="13"/>
-      <c r="B47" s="35"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="44"/>
+        <v>77</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="13"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="12"/>
+      <c r="AN47" s="12"/>
+      <c r="AO47" s="12"/>
+      <c r="AP47" s="12"/>
+      <c r="AQ47" s="12"/>
+      <c r="AR47" s="12"/>
+      <c r="AS47" s="12"/>
+      <c r="AT47" s="12"/>
+      <c r="AU47" s="12"/>
     </row>
     <row r="48" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
-      <c r="A48" s="13"/>
-      <c r="B48" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="44"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="47"/>
+      <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
@@ -3439,1344 +3592,905 @@
       <c r="AT48" s="12"/>
       <c r="AU48" s="12"/>
     </row>
-    <row r="49" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
-      <c r="A49" s="13"/>
-      <c r="B49" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="13"/>
+    <row r="49" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B49" s="44"/>
       <c r="G49" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="12"/>
-      <c r="AA49" s="12"/>
-      <c r="AB49" s="12"/>
-      <c r="AC49" s="12"/>
-      <c r="AD49" s="12"/>
-      <c r="AE49" s="12"/>
-      <c r="AF49" s="12"/>
-      <c r="AG49" s="12"/>
-      <c r="AH49" s="12"/>
-      <c r="AI49" s="12"/>
-      <c r="AJ49" s="12"/>
-      <c r="AK49" s="12"/>
-      <c r="AL49" s="12"/>
-      <c r="AM49" s="12"/>
-      <c r="AN49" s="12"/>
-      <c r="AO49" s="12"/>
-      <c r="AP49" s="12"/>
-      <c r="AQ49" s="12"/>
-      <c r="AR49" s="12"/>
-      <c r="AS49" s="12"/>
-      <c r="AT49" s="12"/>
-      <c r="AU49" s="12"/>
-    </row>
-    <row r="50" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
-      <c r="A50" s="13"/>
-      <c r="B50" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B50" s="44"/>
       <c r="G50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
-      <c r="AA50" s="12"/>
-      <c r="AB50" s="12"/>
-      <c r="AC50" s="12"/>
-      <c r="AD50" s="12"/>
-      <c r="AE50" s="12"/>
-      <c r="AF50" s="12"/>
-      <c r="AG50" s="12"/>
-      <c r="AH50" s="12"/>
-      <c r="AI50" s="12"/>
-      <c r="AJ50" s="12"/>
-      <c r="AK50" s="12"/>
-      <c r="AL50" s="12"/>
-      <c r="AM50" s="12"/>
-      <c r="AN50" s="12"/>
-      <c r="AO50" s="12"/>
-      <c r="AP50" s="12"/>
-      <c r="AQ50" s="12"/>
-      <c r="AR50" s="12"/>
-      <c r="AS50" s="12"/>
-      <c r="AT50" s="12"/>
-      <c r="AU50" s="12"/>
-    </row>
-    <row r="51" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
-      <c r="A51" s="13"/>
-      <c r="B51" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="H50" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B51" s="44"/>
       <c r="G51" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="12"/>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="12"/>
-      <c r="AD51" s="12"/>
-      <c r="AE51" s="12"/>
-      <c r="AF51" s="12"/>
-      <c r="AG51" s="12"/>
-      <c r="AH51" s="12"/>
-      <c r="AI51" s="12"/>
-      <c r="AJ51" s="12"/>
-      <c r="AK51" s="12"/>
-      <c r="AL51" s="12"/>
-      <c r="AM51" s="12"/>
-      <c r="AN51" s="12"/>
-      <c r="AO51" s="12"/>
-      <c r="AP51" s="12"/>
-      <c r="AQ51" s="12"/>
-      <c r="AR51" s="12"/>
-      <c r="AS51" s="12"/>
-      <c r="AT51" s="12"/>
-      <c r="AU51" s="12"/>
-    </row>
-    <row r="52" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
-      <c r="A52" s="13"/>
-      <c r="B52" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="H51" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B52" s="44"/>
       <c r="G52" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
-      <c r="AA52" s="12"/>
-      <c r="AB52" s="12"/>
-      <c r="AC52" s="12"/>
-      <c r="AD52" s="12"/>
-      <c r="AE52" s="12"/>
-      <c r="AF52" s="12"/>
-      <c r="AG52" s="12"/>
-      <c r="AH52" s="12"/>
-      <c r="AI52" s="12"/>
-      <c r="AJ52" s="12"/>
-      <c r="AK52" s="12"/>
-      <c r="AL52" s="12"/>
-      <c r="AM52" s="12"/>
-      <c r="AN52" s="12"/>
-      <c r="AO52" s="12"/>
-      <c r="AP52" s="12"/>
-      <c r="AQ52" s="12"/>
-      <c r="AR52" s="12"/>
-      <c r="AS52" s="12"/>
-      <c r="AT52" s="12"/>
-      <c r="AU52" s="12"/>
-    </row>
-    <row r="53" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
-      <c r="A53" s="13"/>
-      <c r="B53" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B53" s="44"/>
+      <c r="G53" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H53" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B54" s="44"/>
+      <c r="G54" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B55" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H55" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B56" s="44"/>
+      <c r="G56" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H56" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B57" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H57" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B58" s="44"/>
+      <c r="D58" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H58" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B59" s="44"/>
+      <c r="E59" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H59" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B60" s="44"/>
+      <c r="E60" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H60" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" s="13" customFormat="1" ht="96" customHeight="1" spans="2:9">
+      <c r="B61" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H61" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B62" s="44"/>
+      <c r="E62" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H62" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B63" s="44"/>
+      <c r="E63" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H63" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B64" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H64" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B65" s="44"/>
+      <c r="E65" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H65" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B66" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H66" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B67" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H67" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B68" s="44"/>
+      <c r="E68" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H68" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B69" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H69" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B70" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H70" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B71" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H71" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B72" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H72" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B73" s="44"/>
+      <c r="D73" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H73" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B74" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E74" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H74" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B75" s="44"/>
+      <c r="E75" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H75" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B76" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H76" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B77" s="44"/>
+      <c r="E77" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H77" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B78" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H78" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B79" s="44"/>
+      <c r="E79" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H79" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B80" s="44"/>
+      <c r="G80" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H80" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B81" s="44"/>
+      <c r="G81" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H81" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B82" s="44"/>
+      <c r="G82" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H82" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B83" s="44"/>
+      <c r="D83" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H83" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B84" s="44"/>
+      <c r="G84" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H84" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B85" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H85" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B86" s="44"/>
+      <c r="G86" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H86" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" s="13" customFormat="1" ht="80" customHeight="1" spans="2:9">
+      <c r="B87" s="44"/>
+      <c r="G87" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H87" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B88" s="44"/>
+      <c r="D88" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E88" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H88" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B89" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H89" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" s="13" customFormat="1" ht="94" customHeight="1" spans="2:8">
+      <c r="B90" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G90" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-      <c r="Z53" s="12"/>
-      <c r="AA53" s="12"/>
-      <c r="AB53" s="12"/>
-      <c r="AC53" s="12"/>
-      <c r="AD53" s="12"/>
-      <c r="AE53" s="12"/>
-      <c r="AF53" s="12"/>
-      <c r="AG53" s="12"/>
-      <c r="AH53" s="12"/>
-      <c r="AI53" s="12"/>
-      <c r="AJ53" s="12"/>
-      <c r="AK53" s="12"/>
-      <c r="AL53" s="12"/>
-      <c r="AM53" s="12"/>
-      <c r="AN53" s="12"/>
-      <c r="AO53" s="12"/>
-      <c r="AP53" s="12"/>
-      <c r="AQ53" s="12"/>
-      <c r="AR53" s="12"/>
-      <c r="AS53" s="12"/>
-      <c r="AT53" s="12"/>
-      <c r="AU53" s="12"/>
-    </row>
-    <row r="54" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
-      <c r="A54" s="13"/>
-      <c r="B54" s="35" t="s">
+      <c r="H90" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B91" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G91" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="12"/>
-      <c r="AA54" s="12"/>
-      <c r="AB54" s="12"/>
-      <c r="AC54" s="12"/>
-      <c r="AD54" s="12"/>
-      <c r="AE54" s="12"/>
-      <c r="AF54" s="12"/>
-      <c r="AG54" s="12"/>
-      <c r="AH54" s="12"/>
-      <c r="AI54" s="12"/>
-      <c r="AJ54" s="12"/>
-      <c r="AK54" s="12"/>
-      <c r="AL54" s="12"/>
-      <c r="AM54" s="12"/>
-      <c r="AN54" s="12"/>
-      <c r="AO54" s="12"/>
-      <c r="AP54" s="12"/>
-      <c r="AQ54" s="12"/>
-      <c r="AR54" s="12"/>
-      <c r="AS54" s="12"/>
-      <c r="AT54" s="12"/>
-      <c r="AU54" s="12"/>
-    </row>
-    <row r="55" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
-      <c r="A55" s="13"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
-      <c r="V55" s="12"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="12"/>
-      <c r="Y55" s="12"/>
-      <c r="Z55" s="12"/>
-      <c r="AA55" s="12"/>
-      <c r="AB55" s="12"/>
-      <c r="AC55" s="12"/>
-      <c r="AD55" s="12"/>
-      <c r="AE55" s="12"/>
-      <c r="AF55" s="12"/>
-      <c r="AG55" s="12"/>
-      <c r="AH55" s="12"/>
-      <c r="AI55" s="12"/>
-      <c r="AJ55" s="12"/>
-      <c r="AK55" s="12"/>
-      <c r="AL55" s="12"/>
-      <c r="AM55" s="12"/>
-      <c r="AN55" s="12"/>
-      <c r="AO55" s="12"/>
-      <c r="AP55" s="12"/>
-      <c r="AQ55" s="12"/>
-      <c r="AR55" s="12"/>
-      <c r="AS55" s="12"/>
-      <c r="AT55" s="12"/>
-      <c r="AU55" s="12"/>
-    </row>
-    <row r="56" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
-      <c r="A56" s="13"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="12"/>
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="12"/>
-      <c r="AB56" s="12"/>
-      <c r="AC56" s="12"/>
-      <c r="AD56" s="12"/>
-      <c r="AE56" s="12"/>
-      <c r="AF56" s="12"/>
-      <c r="AG56" s="12"/>
-      <c r="AH56" s="12"/>
-      <c r="AI56" s="12"/>
-      <c r="AJ56" s="12"/>
-      <c r="AK56" s="12"/>
-      <c r="AL56" s="12"/>
-      <c r="AM56" s="12"/>
-      <c r="AN56" s="12"/>
-      <c r="AO56" s="12"/>
-      <c r="AP56" s="12"/>
-      <c r="AQ56" s="12"/>
-      <c r="AR56" s="12"/>
-      <c r="AS56" s="12"/>
-      <c r="AT56" s="12"/>
-      <c r="AU56" s="12"/>
-    </row>
-    <row r="57" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
-      <c r="A57" s="13"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="12"/>
-      <c r="AB57" s="12"/>
-      <c r="AC57" s="12"/>
-      <c r="AD57" s="12"/>
-      <c r="AE57" s="12"/>
-      <c r="AF57" s="12"/>
-      <c r="AG57" s="12"/>
-      <c r="AH57" s="12"/>
-      <c r="AI57" s="12"/>
-      <c r="AJ57" s="12"/>
-      <c r="AK57" s="12"/>
-      <c r="AL57" s="12"/>
-      <c r="AM57" s="12"/>
-      <c r="AN57" s="12"/>
-      <c r="AO57" s="12"/>
-      <c r="AP57" s="12"/>
-      <c r="AQ57" s="12"/>
-      <c r="AR57" s="12"/>
-      <c r="AS57" s="12"/>
-      <c r="AT57" s="12"/>
-      <c r="AU57" s="12"/>
-    </row>
-    <row r="58" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
-      <c r="A58" s="13"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
-      <c r="AA58" s="12"/>
-      <c r="AB58" s="12"/>
-      <c r="AC58" s="12"/>
-      <c r="AD58" s="12"/>
-      <c r="AE58" s="12"/>
-      <c r="AF58" s="12"/>
-      <c r="AG58" s="12"/>
-      <c r="AH58" s="12"/>
-      <c r="AI58" s="12"/>
-      <c r="AJ58" s="12"/>
-      <c r="AK58" s="12"/>
-      <c r="AL58" s="12"/>
-      <c r="AM58" s="12"/>
-      <c r="AN58" s="12"/>
-      <c r="AO58" s="12"/>
-      <c r="AP58" s="12"/>
-      <c r="AQ58" s="12"/>
-      <c r="AR58" s="12"/>
-      <c r="AS58" s="12"/>
-      <c r="AT58" s="12"/>
-      <c r="AU58" s="12"/>
-    </row>
-    <row r="59" s="11" customFormat="1" ht="80" customHeight="1" spans="1:47">
-      <c r="A59" s="37"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="12"/>
-      <c r="V59" s="12"/>
-      <c r="W59" s="12"/>
-      <c r="X59" s="12"/>
-      <c r="Y59" s="12"/>
-      <c r="Z59" s="12"/>
-      <c r="AA59" s="12"/>
-      <c r="AB59" s="12"/>
-      <c r="AC59" s="12"/>
-      <c r="AD59" s="12"/>
-      <c r="AE59" s="12"/>
-      <c r="AF59" s="12"/>
-      <c r="AG59" s="12"/>
-      <c r="AH59" s="12"/>
-      <c r="AI59" s="12"/>
-      <c r="AJ59" s="12"/>
-      <c r="AK59" s="12"/>
-      <c r="AL59" s="12"/>
-      <c r="AM59" s="12"/>
-      <c r="AN59" s="12"/>
-      <c r="AO59" s="12"/>
-      <c r="AP59" s="12"/>
-      <c r="AQ59" s="12"/>
-      <c r="AR59" s="12"/>
-      <c r="AS59" s="12"/>
-      <c r="AT59" s="12"/>
-      <c r="AU59" s="12"/>
-    </row>
-    <row r="60" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B60" s="35"/>
-      <c r="G60" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B61" s="35"/>
-      <c r="G61" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B62" s="35"/>
-      <c r="G62" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B63" s="35"/>
-      <c r="G63" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B64" s="35"/>
-      <c r="G64" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B65" s="35"/>
-      <c r="G65" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B66" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B67" s="35"/>
-      <c r="G67" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B68" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B69" s="35"/>
-      <c r="D69" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E69" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B70" s="35"/>
-      <c r="E70" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B71" s="35"/>
-      <c r="E71" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B72" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B73" s="35"/>
-      <c r="E73" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B74" s="35"/>
-      <c r="E74" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B75" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E75" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B76" s="35"/>
-      <c r="E76" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B77" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E77" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B78" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E78" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B79" s="35"/>
-      <c r="E79" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B80" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E80" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B81" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E81" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B82" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E82" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B83" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E83" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B84" s="35"/>
-      <c r="D84" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E84" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="85" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B85" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C85" s="13" t="s">
+      <c r="H91" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" s="13" customFormat="1" ht="89" customHeight="1" spans="2:8">
+      <c r="B92" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D85" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E85" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="86" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B86" s="35"/>
-      <c r="E86" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B87" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E87" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="88" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B88" s="35"/>
-      <c r="E88" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B89" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E89" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B90" s="35"/>
-      <c r="E90" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B91" s="35"/>
-      <c r="G91" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B92" s="35"/>
+      <c r="E92" s="57" t="s">
+        <v>149</v>
+      </c>
       <c r="G92" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B93" s="35"/>
+        <v>169</v>
+      </c>
+      <c r="H92" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B93" s="44"/>
       <c r="G93" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B94" s="35"/>
+        <v>170</v>
+      </c>
+      <c r="H93" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B94" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>172</v>
+      </c>
       <c r="D94" s="13" t="s">
-        <v>129</v>
+        <v>173</v>
+      </c>
+      <c r="E94" s="57" t="s">
+        <v>174</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="95" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B95" s="35"/>
+        <v>175</v>
+      </c>
+      <c r="H94" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B95" s="44"/>
       <c r="G95" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B96" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E96" s="46" t="s">
-        <v>146</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="H95" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B96" s="44"/>
       <c r="G96" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B97" s="35"/>
+        <v>177</v>
+      </c>
+      <c r="H96" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B97" s="44"/>
       <c r="G97" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="98" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B98" s="35"/>
+        <v>178</v>
+      </c>
+      <c r="H97" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B98" s="44"/>
       <c r="G98" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="99" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B99" s="35"/>
-      <c r="D99" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E99" s="46" t="s">
-        <v>155</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="H98" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B99" s="44"/>
       <c r="G99" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="100" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B100" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E100" s="46" t="s">
-        <v>146</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="H99" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" s="13" customFormat="1" ht="80" customHeight="1" spans="2:8">
+      <c r="B100" s="44"/>
       <c r="G100" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="101" s="13" customFormat="1" ht="94" customHeight="1" spans="2:7">
-      <c r="B101" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G101" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="102" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B102" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="103" s="13" customFormat="1" ht="89" customHeight="1" spans="2:7">
-      <c r="B103" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E103" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="104" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B104" s="35"/>
-      <c r="G104" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="105" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B105" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="106" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B106" s="35"/>
-      <c r="G106" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="107" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B107" s="35"/>
-      <c r="G107" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="108" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B108" s="35"/>
-      <c r="G108" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="109" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B109" s="35"/>
-      <c r="G109" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="110" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B110" s="35"/>
-      <c r="G110" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="111" s="13" customFormat="1" ht="80" customHeight="1" spans="2:7">
-      <c r="B111" s="35"/>
-      <c r="G111" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="112" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:47">
-      <c r="A112" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="7"/>
-      <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-      <c r="T112" s="7"/>
-      <c r="U112" s="7"/>
-      <c r="V112" s="7"/>
-      <c r="W112" s="7"/>
-      <c r="X112" s="7"/>
-      <c r="Y112" s="7"/>
-      <c r="Z112" s="7"/>
-      <c r="AA112" s="7"/>
-      <c r="AB112" s="7"/>
-      <c r="AC112" s="7"/>
-      <c r="AD112" s="7"/>
-      <c r="AE112" s="7"/>
-      <c r="AF112" s="7"/>
-      <c r="AG112" s="7"/>
-      <c r="AH112" s="7"/>
-      <c r="AI112" s="7"/>
-      <c r="AJ112" s="7"/>
-      <c r="AK112" s="7"/>
-      <c r="AL112" s="7"/>
-      <c r="AM112" s="7"/>
-      <c r="AN112" s="7"/>
-      <c r="AO112" s="7"/>
-      <c r="AP112" s="7"/>
-      <c r="AQ112" s="7"/>
-      <c r="AR112" s="7"/>
-      <c r="AS112" s="7"/>
-      <c r="AT112" s="7"/>
-      <c r="AU112" s="7"/>
-    </row>
-    <row r="113" s="6" customFormat="1" ht="21" customHeight="1" spans="1:47">
-      <c r="A113" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="H100" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:47">
+      <c r="A101" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="7"/>
+      <c r="AB101" s="7"/>
+      <c r="AC101" s="7"/>
+      <c r="AD101" s="7"/>
+      <c r="AE101" s="7"/>
+      <c r="AF101" s="7"/>
+      <c r="AG101" s="7"/>
+      <c r="AH101" s="7"/>
+      <c r="AI101" s="7"/>
+      <c r="AJ101" s="7"/>
+      <c r="AK101" s="7"/>
+      <c r="AL101" s="7"/>
+      <c r="AM101" s="7"/>
+      <c r="AN101" s="7"/>
+      <c r="AO101" s="7"/>
+      <c r="AP101" s="7"/>
+      <c r="AQ101" s="7"/>
+      <c r="AR101" s="7"/>
+      <c r="AS101" s="7"/>
+      <c r="AT101" s="7"/>
+      <c r="AU101" s="7"/>
+    </row>
+    <row r="102" s="6" customFormat="1" ht="21" customHeight="1" spans="1:47">
+      <c r="A102" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-      <c r="T113" s="7"/>
-      <c r="U113" s="7"/>
-      <c r="V113" s="7"/>
-      <c r="W113" s="7"/>
-      <c r="X113" s="7"/>
-      <c r="Y113" s="7"/>
-      <c r="Z113" s="7"/>
-      <c r="AA113" s="7"/>
-      <c r="AB113" s="7"/>
-      <c r="AC113" s="7"/>
-      <c r="AD113" s="7"/>
-      <c r="AE113" s="7"/>
-      <c r="AF113" s="7"/>
-      <c r="AG113" s="7"/>
-      <c r="AH113" s="7"/>
-      <c r="AI113" s="7"/>
-      <c r="AJ113" s="7"/>
-      <c r="AK113" s="7"/>
-      <c r="AL113" s="7"/>
-      <c r="AM113" s="7"/>
-      <c r="AN113" s="7"/>
-      <c r="AO113" s="7"/>
-      <c r="AP113" s="7"/>
-      <c r="AQ113" s="7"/>
-      <c r="AR113" s="7"/>
-      <c r="AS113" s="7"/>
-      <c r="AT113" s="7"/>
-      <c r="AU113" s="7"/>
-    </row>
-    <row r="114" s="6" customFormat="1" ht="18" spans="2:47">
-      <c r="B114" s="47"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="7"/>
-      <c r="M114" s="7"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-      <c r="T114" s="7"/>
-      <c r="U114" s="7"/>
-      <c r="V114" s="7"/>
-      <c r="W114" s="7"/>
-      <c r="X114" s="7"/>
-      <c r="Y114" s="7"/>
-      <c r="Z114" s="7"/>
-      <c r="AA114" s="7"/>
-      <c r="AB114" s="7"/>
-      <c r="AC114" s="7"/>
-      <c r="AD114" s="7"/>
-      <c r="AE114" s="7"/>
-      <c r="AF114" s="7"/>
-      <c r="AG114" s="7"/>
-      <c r="AH114" s="7"/>
-      <c r="AI114" s="7"/>
-      <c r="AJ114" s="7"/>
-      <c r="AK114" s="7"/>
-      <c r="AL114" s="7"/>
-      <c r="AM114" s="7"/>
-      <c r="AN114" s="7"/>
-      <c r="AO114" s="7"/>
-      <c r="AP114" s="7"/>
-      <c r="AQ114" s="7"/>
-      <c r="AR114" s="7"/>
-      <c r="AS114" s="7"/>
-      <c r="AT114" s="7"/>
-      <c r="AU114" s="7"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="7"/>
+      <c r="Y102" s="7"/>
+      <c r="Z102" s="7"/>
+      <c r="AA102" s="7"/>
+      <c r="AB102" s="7"/>
+      <c r="AC102" s="7"/>
+      <c r="AD102" s="7"/>
+      <c r="AE102" s="7"/>
+      <c r="AF102" s="7"/>
+      <c r="AG102" s="7"/>
+      <c r="AH102" s="7"/>
+      <c r="AI102" s="7"/>
+      <c r="AJ102" s="7"/>
+      <c r="AK102" s="7"/>
+      <c r="AL102" s="7"/>
+      <c r="AM102" s="7"/>
+      <c r="AN102" s="7"/>
+      <c r="AO102" s="7"/>
+      <c r="AP102" s="7"/>
+      <c r="AQ102" s="7"/>
+      <c r="AR102" s="7"/>
+      <c r="AS102" s="7"/>
+      <c r="AT102" s="7"/>
+      <c r="AU102" s="7"/>
+    </row>
+    <row r="103" s="6" customFormat="1" ht="18" spans="2:47">
+      <c r="B103" s="58"/>
+      <c r="H103" s="59"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="7"/>
+      <c r="AA103" s="7"/>
+      <c r="AB103" s="7"/>
+      <c r="AC103" s="7"/>
+      <c r="AD103" s="7"/>
+      <c r="AE103" s="7"/>
+      <c r="AF103" s="7"/>
+      <c r="AG103" s="7"/>
+      <c r="AH103" s="7"/>
+      <c r="AI103" s="7"/>
+      <c r="AJ103" s="7"/>
+      <c r="AK103" s="7"/>
+      <c r="AL103" s="7"/>
+      <c r="AM103" s="7"/>
+      <c r="AN103" s="7"/>
+      <c r="AO103" s="7"/>
+      <c r="AP103" s="7"/>
+      <c r="AQ103" s="7"/>
+      <c r="AR103" s="7"/>
+      <c r="AS103" s="7"/>
+      <c r="AT103" s="7"/>
+      <c r="AU103" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="A113:I113"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A101:I101"/>
+    <mergeCell ref="A102:I102"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E42" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
-    <hyperlink ref="E43" r:id="rId2" display="http://www.jantv.in/gps/index.php?pd_p=admin_user_account&amp;p=admin_user_addedit"/>
-    <hyperlink ref="E48" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
-    <hyperlink ref="E49" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
-    <hyperlink ref="E50" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
-    <hyperlink ref="E51" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
-    <hyperlink ref="E54" r:id="rId3" display="http://www.jantv.in/gps/index.php?pd_p=admin_user_account&amp;pd_uid_override=&amp;p=admin_user_track_config&amp;user_id=2"/>
-    <hyperlink ref="E55" r:id="rId3" display="http://www.jantv.in/gps/index.php?pd_p=admin_user_account&amp;pd_uid_override=&amp;p=admin_user_track_config&amp;user_id=2"/>
-    <hyperlink ref="E56" r:id="rId4" display="http://www.jantv.in/gps/index.php?pd_pd_p=admin_user_account&amp;pd_pd_uid_override=&amp;pd_p=admin_user_track_config&amp;pd_user_id=2&amp;p=admin_user_track_config_addedit&amp;user_id=2"/>
-    <hyperlink ref="E66" r:id="rId3" display="http://www.jantv.in/gps/index.php?pd_p=admin_user_account&amp;pd_uid_override=&amp;p=admin_user_track_config&amp;user_id=2"/>
-    <hyperlink ref="E68" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_live"/>
-    <hyperlink ref="E69" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_live"/>
-    <hyperlink ref="E70" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_live"/>
-    <hyperlink ref="E71" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_live"/>
-    <hyperlink ref="E72" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_live"/>
-    <hyperlink ref="E73" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_live"/>
-    <hyperlink ref="E74" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_live"/>
-    <hyperlink ref="E75" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_history"/>
-    <hyperlink ref="E76" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_history"/>
-    <hyperlink ref="E77" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_history"/>
-    <hyperlink ref="E78" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_history"/>
-    <hyperlink ref="E79" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_history"/>
-    <hyperlink ref="E80" r:id="rId7" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
-    <hyperlink ref="E81" r:id="rId7" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
-    <hyperlink ref="E82" r:id="rId7" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
-    <hyperlink ref="E83" r:id="rId7" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
-    <hyperlink ref="E84" r:id="rId7" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
-    <hyperlink ref="E85" r:id="rId8" display="http://www.jantv.in/gps/index.php?p=tripreport"/>
-    <hyperlink ref="E86" r:id="rId8" display="http://www.jantv.in/gps/index.php?p=tripreport"/>
-    <hyperlink ref="E87" r:id="rId8" display="http://www.jantv.in/gps/index.php?p=tripreport"/>
-    <hyperlink ref="E88" r:id="rId8" display="http://www.jantv.in/gps/index.php?p=tripreport"/>
-    <hyperlink ref="E89" r:id="rId7" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
-    <hyperlink ref="E90" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=statusactive#"/>
-    <hyperlink ref="E96" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=statusactive#"/>
-    <hyperlink ref="E99" r:id="rId10" display="http://jantv.in/gps/includes/pages/status_since_last_active_notification.php"/>
-    <hyperlink ref="E100" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=statusactive#"/>
-    <hyperlink ref="E103" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=statusactive#"/>
+    <hyperlink ref="E92" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=statusactive#"/>
+    <hyperlink ref="E89" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=statusactive#"/>
+    <hyperlink ref="E88" r:id="rId2" display="http://jantv.in/gps/includes/pages/status_since_last_active_notification.php"/>
+    <hyperlink ref="E85" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=statusactive#"/>
+    <hyperlink ref="E79" r:id="rId1" display="http://www.jantv.in/gps/index.php?p=statusactive#"/>
+    <hyperlink ref="E78" r:id="rId3" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
+    <hyperlink ref="E77" r:id="rId4" display="http://www.jantv.in/gps/index.php?p=tripreport"/>
+    <hyperlink ref="E76" r:id="rId4" display="http://www.jantv.in/gps/index.php?p=tripreport"/>
+    <hyperlink ref="E75" r:id="rId4" display="http://www.jantv.in/gps/index.php?p=tripreport"/>
+    <hyperlink ref="E74" r:id="rId4" display="http://www.jantv.in/gps/index.php?p=tripreport"/>
+    <hyperlink ref="E73" r:id="rId3" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
+    <hyperlink ref="E72" r:id="rId3" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
+    <hyperlink ref="E71" r:id="rId3" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
+    <hyperlink ref="E70" r:id="rId3" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
+    <hyperlink ref="E69" r:id="rId3" display="http://www.jantv.in/gps/index.php?p=statusactive"/>
+    <hyperlink ref="E68" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_history"/>
+    <hyperlink ref="E67" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_history"/>
+    <hyperlink ref="E66" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_history"/>
+    <hyperlink ref="E65" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_history"/>
+    <hyperlink ref="E64" r:id="rId5" display="http://www.jantv.in/gps/index.php?p=track_history"/>
+    <hyperlink ref="E63" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_live"/>
+    <hyperlink ref="E62" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_live"/>
+    <hyperlink ref="E61" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_live"/>
+    <hyperlink ref="E60" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_live"/>
+    <hyperlink ref="E59" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_live"/>
+    <hyperlink ref="E58" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_live"/>
+    <hyperlink ref="E57" r:id="rId6" display="http://www.jantv.in/gps/index.php?p=track_live"/>
+    <hyperlink ref="E55" r:id="rId7" display="http://www.jantv.in/gps/index.php?pd_p=admin_user_account&amp;pd_uid_override=&amp;p=admin_user_track_config&amp;user_id=2"/>
+    <hyperlink ref="E45" r:id="rId8" display="http://www.jantv.in/gps/index.php?pd_pd_p=admin_user_account&amp;pd_pd_uid_override=&amp;pd_p=admin_user_track_config&amp;pd_user_id=2&amp;p=admin_user_track_config_addedit&amp;user_id=2"/>
+    <hyperlink ref="E44" r:id="rId7" display="http://www.jantv.in/gps/index.php?pd_p=admin_user_account&amp;pd_uid_override=&amp;p=admin_user_track_config&amp;user_id=2"/>
+    <hyperlink ref="E43" r:id="rId7" display="http://www.jantv.in/gps/index.php?pd_p=admin_user_account&amp;pd_uid_override=&amp;p=admin_user_track_config&amp;user_id=2"/>
+    <hyperlink ref="E40" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
+    <hyperlink ref="E39" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
+    <hyperlink ref="E38" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
+    <hyperlink ref="E37" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
+    <hyperlink ref="E32" r:id="rId10" display="http://www.jantv.in/gps/index.php?pd_p=admin_user_account&amp;p=admin_user_addedit"/>
+    <hyperlink ref="E31" r:id="rId9" display="http://www.jantv.in/gps/index.php?p=admin_user_account"/>
+    <hyperlink ref="E94" r:id="rId11" display="http://jantv.in/gps/index.php?p=home&amp;logout=1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.729166666666667" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" scale="80" orientation="landscape"/>
@@ -4787,7 +4501,7 @@
 Traceability Matrix</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="39" max="8" man="1"/>
+    <brk id="28" max="8" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -4805,37 +4519,37 @@
   <sheetData>
     <row r="1" ht="30" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -5035,7 +4749,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5050,7 +4764,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -5065,7 +4779,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
